--- a/output/output_adele.xlsx
+++ b/output/output_adele.xlsx
@@ -414,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,10 +428,16 @@
         <v>87</v>
       </c>
       <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>889</v>
+      </c>
+      <c r="D1">
+        <v>976</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -439,10 +445,16 @@
         <v>77</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>758</v>
+      </c>
+      <c r="D2">
+        <v>835</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -450,10 +462,16 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>316</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -461,10 +479,16 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -472,10 +496,16 @@
         <v>53</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>153</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -483,10 +513,16 @@
         <v>46</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>88</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -494,10 +530,16 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>192</v>
+      </c>
+      <c r="D7">
+        <v>234</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -505,10 +547,16 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -516,10 +564,16 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>283</v>
+      </c>
+      <c r="D9">
+        <v>333</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -527,10 +581,16 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D10">
+        <v>185</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -538,10 +598,16 @@
         <v>55</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1306</v>
+      </c>
+      <c r="D11">
+        <v>1361</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -549,10 +615,16 @@
         <v>79</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>1159</v>
+      </c>
+      <c r="D12">
+        <v>1238</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -560,10 +632,16 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -571,10 +649,16 @@
         <v>47</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -582,10 +666,16 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>118</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -593,10 +683,16 @@
         <v>56</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="D16">
+        <v>251</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -604,10 +700,16 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -615,10 +717,16 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -626,10 +734,16 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>583</v>
+      </c>
+      <c r="D19">
+        <v>649</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -637,10 +751,16 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -648,10 +768,16 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="D21">
+        <v>153</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -659,10 +785,16 @@
         <v>64</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>95</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -670,6 +802,12 @@
         <v>34</v>
       </c>
       <c r="C23">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>123</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
     </row>
